--- a/data/trans_camb/P37A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37A-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 11,33</t>
+          <t>-4,76; 13,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 11,47</t>
+          <t>-2,95; 13,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 5,33</t>
+          <t>-9,18; 11,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 8,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 2,2</t>
+          <t>-7,45; 7,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 5,29</t>
+          <t>-7,7; 7,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 7,28</t>
+          <t>-17,25; 4,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 1,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 7,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 8,38</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 2,77</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-5,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 14,43</t>
+          <t>-5,27; 17,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 14,47</t>
+          <t>-3,29; 17,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 6,76</t>
+          <t>-10,54; 14,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 5,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 2,98</t>
+          <t>-8,66; 10,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 6,61</t>
+          <t>-9,1; 9,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 9,2</t>
+          <t>-20,4; 5,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 1,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 9,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 10,84</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 3,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,64</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-10,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-8,46</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 2,94</t>
+          <t>-8,42; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 0,53</t>
+          <t>-11,38; 1,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 1,87</t>
+          <t>-13,58; 0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -6,46</t>
+          <t>-11,37; 1,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 0,42</t>
+          <t>-10,73; 1,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; -0,38</t>
+          <t>-16,98; -3,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; -3,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 1,43</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; 0,84</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; -3,3</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,35%</t>
+          <t>-6,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,37%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-5,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-10,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 3,65</t>
+          <t>-10,05; 5,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 0,63</t>
+          <t>-13,31; 2,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 2,24</t>
+          <t>-16,12; 0,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 1,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 2,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,3; -8,87</t>
+          <t>-14,94; 2,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,57</t>
+          <t>-13,76; 2,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -0,53</t>
+          <t>-22,75; -4,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,67; -4,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 1,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 1,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; -4,46</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 4,13</t>
+          <t>-7,22; 8,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 7,35</t>
+          <t>-5,02; 9,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 5,01</t>
+          <t>-12,88; 4,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 4,56</t>
+          <t>-10,41; 3,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,6</t>
+          <t>-9,8; 2,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 2,54</t>
+          <t>-10,97; 3,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 2,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 3,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 3,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 1,89</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-5,04%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 5,49</t>
+          <t>-8,94; 12,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 10,16</t>
+          <t>-6,25; 13,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 6,62</t>
+          <t>-16,07; 6,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 6,7</t>
+          <t>-14,1; 4,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 2,24</t>
+          <t>-13,45; 3,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 3,57</t>
+          <t>-14,81; 5,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 3,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 5,14</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 5,71</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-11,65; 2,72</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 2,35</t>
+          <t>-6,01; 7,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,24</t>
+          <t>-8,43; 5,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 0,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -2,88</t>
+          <t>-12,03; 1,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 0,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,71</t>
+          <t>-10,49; 1,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; -1,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 2,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 1,73</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-6,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>-5,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,58%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-3,64%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,95</t>
+          <t>-7,15; 9,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,58</t>
+          <t>-10,24; 6,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -4,03</t>
+          <t>-15,58; 1,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 0,93</t>
+          <t>-13,5; 2,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -2,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-8,49; 3,39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 2,24</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-6,13</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-4,89</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 3,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 3,37</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 0,88</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; -0,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 0,62</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; -2,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 0,68</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 0,93</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; -2,29</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,49%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,7%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 4,44</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 4,33</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-9,43; 1,12</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; -0,27</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 0,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,97; -2,93</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 0,89</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 1,21</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; -3,05</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
